--- a/Code/Results/Cases/Case_7_14/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_7_14/res_line/loading_percent.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>24.30052155078686</v>
+        <v>24.44727161803648</v>
       </c>
       <c r="C2">
-        <v>13.21088835318185</v>
+        <v>13.51450604720748</v>
       </c>
       <c r="D2">
-        <v>4.768932060612436</v>
+        <v>4.38121908103041</v>
       </c>
       <c r="E2">
-        <v>6.610032726882252</v>
+        <v>6.738132518955204</v>
       </c>
       <c r="F2">
-        <v>36.96746067977511</v>
+        <v>18.91129915119957</v>
       </c>
       <c r="G2">
-        <v>2.082551186485717</v>
+        <v>2.074401175087282</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -451,7 +451,7 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>7.359765368294009</v>
+        <v>7.340065174678968</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -460,7 +460,7 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>29.26891864106332</v>
+        <v>14.89662837978433</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>22.57260655453807</v>
+        <v>22.79550767265759</v>
       </c>
       <c r="C3">
-        <v>12.43764866488866</v>
+        <v>12.9493085239986</v>
       </c>
       <c r="D3">
-        <v>4.850895394694687</v>
+        <v>4.282214925676478</v>
       </c>
       <c r="E3">
-        <v>6.627257036595886</v>
+        <v>6.840890657284987</v>
       </c>
       <c r="F3">
-        <v>35.31173687052196</v>
+        <v>18.45906678293123</v>
       </c>
       <c r="G3">
-        <v>2.093999749846803</v>
+        <v>2.080711648881544</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -498,7 +498,7 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>7.104199134985231</v>
+        <v>7.064955223889736</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -507,7 +507,7 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>28.14745058080089</v>
+        <v>14.80728976276794</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>21.45899016234156</v>
+        <v>21.7218021037166</v>
       </c>
       <c r="C4">
-        <v>11.94150546528896</v>
+        <v>12.59053542470266</v>
       </c>
       <c r="D4">
-        <v>4.903124173271404</v>
+        <v>4.220476359617583</v>
       </c>
       <c r="E4">
-        <v>6.641051896867388</v>
+        <v>6.909569788637575</v>
       </c>
       <c r="F4">
-        <v>34.29981247183066</v>
+        <v>18.20384658050628</v>
       </c>
       <c r="G4">
-        <v>2.101175834622171</v>
+        <v>2.084698255154618</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -545,7 +545,7 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>6.948697648516301</v>
+        <v>6.894297419730663</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -554,7 +554,7 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>27.47068761835935</v>
+        <v>14.77467754517231</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>21.00701999187616</v>
+        <v>21.26918687758656</v>
       </c>
       <c r="C5">
-        <v>11.73393508016375</v>
+        <v>12.44152394528653</v>
       </c>
       <c r="D5">
-        <v>4.924867619175159</v>
+        <v>4.195099753338239</v>
       </c>
       <c r="E5">
-        <v>6.647449875056124</v>
+        <v>6.938906543718318</v>
       </c>
       <c r="F5">
-        <v>33.88895221755412</v>
+        <v>18.10547810672112</v>
       </c>
       <c r="G5">
-        <v>2.104140068497353</v>
+        <v>2.086351853714626</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -592,7 +592,7 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>6.88574087596669</v>
+        <v>6.824409059750272</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -601,7 +601,7 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>27.19802126206882</v>
+        <v>14.76673778455548</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>20.93499354763152</v>
+        <v>21.19311713083584</v>
       </c>
       <c r="C6">
-        <v>11.69914280182629</v>
+        <v>12.41661570347873</v>
       </c>
       <c r="D6">
-        <v>4.928505396087564</v>
+        <v>4.190873488724225</v>
       </c>
       <c r="E6">
-        <v>6.648558225449879</v>
+        <v>6.943857872148514</v>
       </c>
       <c r="F6">
-        <v>33.82083111438811</v>
+        <v>18.0894836473822</v>
       </c>
       <c r="G6">
-        <v>2.104634772913753</v>
+        <v>2.086628210176918</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -639,7 +639,7 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>6.875313543938319</v>
+        <v>6.812786295084831</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -648,7 +648,7 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>27.15293851778797</v>
+        <v>14.76573516241931</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>21.452743640862</v>
+        <v>21.71575913919744</v>
       </c>
       <c r="C7">
-        <v>11.93872791586294</v>
+        <v>12.58853696956077</v>
       </c>
       <c r="D7">
-        <v>4.903415573275922</v>
+        <v>4.220134974034439</v>
       </c>
       <c r="E7">
-        <v>6.641135080456845</v>
+        <v>6.909960039816802</v>
       </c>
       <c r="F7">
-        <v>34.29426488101302</v>
+        <v>18.20249716312463</v>
       </c>
       <c r="G7">
-        <v>2.101215645823636</v>
+        <v>2.084720437521823</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -686,7 +686,7 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>6.947846847858063</v>
+        <v>6.893356142909581</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -695,7 +695,7 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>27.46699749558787</v>
+        <v>14.7745491356076</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>23.71556249867285</v>
+        <v>23.89003148258701</v>
       </c>
       <c r="C8">
-        <v>12.94869498656332</v>
+        <v>13.32214176576335</v>
       </c>
       <c r="D8">
-        <v>4.796785543368196</v>
+        <v>4.347291756462733</v>
       </c>
       <c r="E8">
-        <v>6.615283021467894</v>
+        <v>6.772369772824584</v>
       </c>
       <c r="F8">
-        <v>36.39576420307245</v>
+        <v>18.7507115345887</v>
       </c>
       <c r="G8">
-        <v>2.086470140107954</v>
+        <v>2.076554332017355</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -733,7 +733,7 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>7.271382432742556</v>
+        <v>7.245621229927942</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -742,7 +742,7 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>28.87986022708239</v>
+        <v>14.86106636315395</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>27.74380808893928</v>
+        <v>27.68643555605206</v>
       </c>
       <c r="C9">
-        <v>14.76156522390837</v>
+        <v>14.66238955753192</v>
       </c>
       <c r="D9">
-        <v>4.603867030953904</v>
+        <v>4.588265721115647</v>
       </c>
       <c r="E9">
-        <v>6.591733300703464</v>
+        <v>6.549593981628836</v>
       </c>
       <c r="F9">
-        <v>40.54418451593595</v>
+        <v>20.00317991977383</v>
       </c>
       <c r="G9">
-        <v>2.058564718215756</v>
+        <v>2.061386812116739</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -780,7 +780,7 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>7.9151598602931</v>
+        <v>7.919031941479983</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -789,7 +789,7 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>31.74003892986371</v>
+        <v>15.21724023537834</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>30.46841215947754</v>
+        <v>30.19774054785229</v>
       </c>
       <c r="C10">
-        <v>15.99564127383483</v>
+        <v>15.58157478719067</v>
       </c>
       <c r="D10">
-        <v>4.473979092691325</v>
+        <v>4.759198033938553</v>
       </c>
       <c r="E10">
-        <v>6.593410893623145</v>
+        <v>6.418763504607821</v>
       </c>
       <c r="F10">
-        <v>43.60299368595769</v>
+        <v>21.02945436486117</v>
       </c>
       <c r="G10">
-        <v>2.038438631086464</v>
+        <v>2.050696267229815</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -827,7 +827,7 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>8.392153541037493</v>
+        <v>8.399167615180207</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -836,7 +836,7 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>33.89463857262363</v>
+        <v>15.60499154674778</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>31.66075578387182</v>
+        <v>31.28143346280581</v>
       </c>
       <c r="C11">
-        <v>16.53725663120326</v>
+        <v>15.98470814194834</v>
       </c>
       <c r="D11">
-        <v>4.418083861221731</v>
+        <v>4.835458562796127</v>
       </c>
       <c r="E11">
-        <v>6.598899399324831</v>
+        <v>6.367414480996264</v>
       </c>
       <c r="F11">
-        <v>44.99805213479483</v>
+        <v>21.51875564358954</v>
       </c>
       <c r="G11">
-        <v>2.029302058447806</v>
+        <v>2.04591614161296</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -874,7 +874,7 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>8.609962354752401</v>
+        <v>8.613787078857694</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <v>34.88756880651881</v>
+        <v>15.81100583559829</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>32.10586926839159</v>
+        <v>31.68349120130251</v>
       </c>
       <c r="C12">
-        <v>16.7396633755621</v>
+        <v>16.13515928015185</v>
       </c>
       <c r="D12">
-        <v>4.39744633384945</v>
+        <v>4.864109112049182</v>
       </c>
       <c r="E12">
-        <v>6.601713982651431</v>
+        <v>6.349240604922171</v>
       </c>
       <c r="F12">
-        <v>45.52710511983077</v>
+        <v>21.7072170610934</v>
       </c>
       <c r="G12">
-        <v>2.025838939075678</v>
+        <v>2.044116622562496</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -921,7 +921,7 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>8.692576299535991</v>
+        <v>8.694473093230361</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -930,7 +930,7 @@
         <v>0</v>
       </c>
       <c r="O12">
-        <v>35.26561853363736</v>
+        <v>15.89343472089667</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>32.0102843370104</v>
+        <v>31.59726848192951</v>
       </c>
       <c r="C13">
-        <v>16.696188407677</v>
+        <v>16.10285570113218</v>
       </c>
       <c r="D13">
-        <v>4.401866180122592</v>
+        <v>4.857949003239838</v>
       </c>
       <c r="E13">
-        <v>6.601074098441054</v>
+        <v>6.353096523966154</v>
       </c>
       <c r="F13">
-        <v>45.41312396665944</v>
+        <v>21.66648812883568</v>
       </c>
       <c r="G13">
-        <v>2.026585035505274</v>
+        <v>2.044503731654681</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -968,7 +968,7 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>8.674777459378891</v>
+        <v>8.677122490307749</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -977,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="O13">
-        <v>35.18410319839791</v>
+        <v>15.87548349950584</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>31.69750151521404</v>
+        <v>31.31467684204941</v>
       </c>
       <c r="C14">
-        <v>16.5539617131274</v>
+        <v>15.99713030070609</v>
       </c>
       <c r="D14">
-        <v>4.416374940730387</v>
+        <v>4.83782028665488</v>
       </c>
       <c r="E14">
-        <v>6.599115854983734</v>
+        <v>6.365893251811469</v>
       </c>
       <c r="F14">
-        <v>45.04156011904414</v>
+        <v>21.53419714829409</v>
       </c>
       <c r="G14">
-        <v>2.029017249141604</v>
+        <v>2.045767889461691</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1015,7 +1015,7 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>8.616756195996349</v>
+        <v>8.620437095743062</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -1024,7 +1024,7 @@
         <v>0</v>
       </c>
       <c r="O14">
-        <v>34.91862855857586</v>
+        <v>15.81769798161531</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>31.50509128382344</v>
+        <v>31.14050261596033</v>
       </c>
       <c r="C15">
-        <v>16.46649830609021</v>
+        <v>15.93208186494502</v>
       </c>
       <c r="D15">
-        <v>4.425333201483134</v>
+        <v>4.825460887844197</v>
       </c>
       <c r="E15">
-        <v>6.598014039298364</v>
+        <v>6.373900133071346</v>
       </c>
       <c r="F15">
-        <v>44.81407755719801</v>
+        <v>21.45357696276063</v>
       </c>
       <c r="G15">
-        <v>2.030506427682231</v>
+        <v>2.046543563065042</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1062,7 +1062,7 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>8.581234823700898</v>
+        <v>8.585638372223112</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -1071,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>34.7562924426927</v>
+        <v>15.78288206583785</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>30.38957259231477</v>
+        <v>30.12574816509112</v>
       </c>
       <c r="C16">
-        <v>15.95985988190517</v>
+        <v>15.55492258844876</v>
       </c>
       <c r="D16">
-        <v>4.477701794711041</v>
+        <v>4.754182996335386</v>
       </c>
       <c r="E16">
-        <v>6.593152001818174</v>
+        <v>6.422291677703912</v>
       </c>
       <c r="F16">
-        <v>43.51191440823104</v>
+        <v>20.99792422303132</v>
       </c>
       <c r="G16">
-        <v>2.03903561259476</v>
+        <v>2.0510102194935</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1109,7 +1109,7 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>8.377936719155846</v>
+        <v>8.385061695629563</v>
       </c>
       <c r="M16">
         <v>0</v>
@@ -1118,7 +1118,7 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>33.83002121126348</v>
+        <v>15.59213787464002</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>29.69342427482982</v>
+        <v>29.48828190209919</v>
       </c>
       <c r="C17">
-        <v>15.64408833765828</v>
+        <v>15.31966440744952</v>
       </c>
       <c r="D17">
-        <v>4.510690279534819</v>
+        <v>4.710063372316869</v>
       </c>
       <c r="E17">
-        <v>6.591418038422146</v>
+        <v>6.454136021262277</v>
       </c>
       <c r="F17">
-        <v>42.71413823643967</v>
+        <v>20.72410385624062</v>
       </c>
       <c r="G17">
-        <v>2.044268807647107</v>
+        <v>2.0537707262546</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1156,7 +1156,7 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>8.253436068554086</v>
+        <v>8.261010416395639</v>
       </c>
       <c r="M17">
         <v>0</v>
@@ -1165,7 +1165,7 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>33.26517728759414</v>
+        <v>15.48282662235846</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>29.28856053911431</v>
+        <v>29.1160938104411</v>
       </c>
       <c r="C18">
-        <v>15.46059303697267</v>
+        <v>15.18293938168826</v>
       </c>
       <c r="D18">
-        <v>4.529959711044502</v>
+        <v>4.684546595666894</v>
       </c>
       <c r="E18">
-        <v>6.59086175055447</v>
+        <v>6.473214426212593</v>
       </c>
       <c r="F18">
-        <v>42.25559260573093</v>
+        <v>20.56872511028515</v>
       </c>
       <c r="G18">
-        <v>2.047280986317618</v>
+        <v>2.05536640028115</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1203,7 +1203,7 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>8.181901871173519</v>
+        <v>8.189303757213466</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -1212,7 +1212,7 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>32.94147971418809</v>
+        <v>15.42273395848626</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>29.15070456636744</v>
+        <v>28.98912293355538</v>
       </c>
       <c r="C19">
-        <v>15.39813903952169</v>
+        <v>15.13640605530095</v>
       </c>
       <c r="D19">
-        <v>4.536532867294609</v>
+        <v>4.675883359696854</v>
       </c>
       <c r="E19">
-        <v>6.590747520590321</v>
+        <v>6.479802179443377</v>
       </c>
       <c r="F19">
-        <v>42.10038533283203</v>
+        <v>20.51648163780288</v>
       </c>
       <c r="G19">
-        <v>2.048301403054349</v>
+        <v>2.05590806442166</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1250,7 +1250,7 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>8.157694364407902</v>
+        <v>8.164965412703081</v>
       </c>
       <c r="M19">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="O19">
-        <v>32.83208019746892</v>
+        <v>15.4028600850595</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>29.76798927879656</v>
+        <v>29.55671313906756</v>
       </c>
       <c r="C20">
-        <v>15.67789548219955</v>
+        <v>15.34485444569594</v>
       </c>
       <c r="D20">
-        <v>4.507147580158276</v>
+        <v>4.71477460162301</v>
       </c>
       <c r="E20">
-        <v>6.591556584267708</v>
+        <v>6.45066656009088</v>
       </c>
       <c r="F20">
-        <v>42.79902894571948</v>
+        <v>20.75303397314445</v>
       </c>
       <c r="G20">
-        <v>2.043711540035836</v>
+        <v>2.053476056925885</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1297,7 +1297,7 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>8.266681526697607</v>
+        <v>8.274253015406929</v>
       </c>
       <c r="M20">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="O20">
-        <v>33.32518198050506</v>
+        <v>15.49417405792434</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>31.78954392053324</v>
+        <v>31.39790541456826</v>
       </c>
       <c r="C21">
-        <v>16.59580881763303</v>
+        <v>16.02824461919836</v>
       </c>
       <c r="D21">
-        <v>4.412098373282848</v>
+        <v>4.843738845294677</v>
       </c>
       <c r="E21">
-        <v>6.599670575073717</v>
+        <v>6.362099239894454</v>
       </c>
       <c r="F21">
-        <v>45.15067362240149</v>
+        <v>21.57296846682998</v>
       </c>
       <c r="G21">
-        <v>2.028302990747935</v>
+        <v>2.045396298856305</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1344,7 +1344,7 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>8.633794571391284</v>
+        <v>8.63710313240786</v>
       </c>
       <c r="M21">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="O21">
-        <v>34.996547112123</v>
+        <v>15.83454999248991</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>33.07364762100476</v>
+        <v>32.55283948859275</v>
       </c>
       <c r="C22">
-        <v>17.1801248304386</v>
+        <v>16.46200450331092</v>
       </c>
       <c r="D22">
-        <v>4.353105869953083</v>
+        <v>4.926693211862125</v>
       </c>
       <c r="E22">
-        <v>6.609295741270846</v>
+        <v>6.311673927425862</v>
       </c>
       <c r="F22">
-        <v>46.69235168420592</v>
+        <v>22.12732448768095</v>
       </c>
       <c r="G22">
-        <v>2.018209947931867</v>
+        <v>2.040176859088012</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1391,7 +1391,7 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>8.874529944300475</v>
+        <v>8.87082140945923</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -1400,7 +1400,7 @@
         <v>0</v>
       </c>
       <c r="O22">
-        <v>36.10099638822603</v>
+        <v>16.08280406872791</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>32.39155516308045</v>
+        <v>31.94081290418558</v>
       </c>
       <c r="C23">
-        <v>16.86963281755021</v>
+        <v>16.23168915637932</v>
       </c>
       <c r="D23">
-        <v>4.384277365838186</v>
+        <v>4.882544251819787</v>
       </c>
       <c r="E23">
-        <v>6.603742701901105</v>
+        <v>6.337870303496695</v>
       </c>
       <c r="F23">
-        <v>45.8689711158972</v>
+        <v>21.82977825202044</v>
       </c>
       <c r="G23">
-        <v>2.02360108890731</v>
+        <v>2.042957446332631</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1438,7 +1438,7 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>8.745960651664332</v>
+        <v>8.746405467381116</v>
       </c>
       <c r="M23">
         <v>0</v>
@@ -1447,7 +1447,7 @@
         <v>0</v>
       </c>
       <c r="O23">
-        <v>35.51032544918743</v>
+        <v>15.94789856145912</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>29.73429291661274</v>
+        <v>29.52579314155294</v>
       </c>
       <c r="C24">
-        <v>15.66261736958899</v>
+        <v>15.33347061040364</v>
       </c>
       <c r="D24">
-        <v>4.508748292990857</v>
+        <v>4.712645126770144</v>
       </c>
       <c r="E24">
-        <v>6.591492579551208</v>
+        <v>6.452232710233819</v>
       </c>
       <c r="F24">
-        <v>42.76064954187929</v>
+        <v>20.73994829572009</v>
       </c>
       <c r="G24">
-        <v>2.043963469238318</v>
+        <v>2.053609249974309</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1485,7 +1485,7 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>8.26069312245308</v>
+        <v>8.268267241560103</v>
       </c>
       <c r="M24">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="O24">
-        <v>33.29805063785865</v>
+        <v>15.48903532296538</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>26.69649445312047</v>
+        <v>26.70873115463855</v>
       </c>
       <c r="C25">
-        <v>14.28872245724695</v>
+        <v>14.31098931771824</v>
       </c>
       <c r="D25">
-        <v>4.654149077323896</v>
+        <v>4.524083469846672</v>
       </c>
       <c r="E25">
-        <v>6.594960240704259</v>
+        <v>6.604419374722107</v>
       </c>
       <c r="F25">
-        <v>39.41998219076072</v>
+        <v>19.64552419598267</v>
       </c>
       <c r="G25">
-        <v>2.066028771025539</v>
+        <v>2.065405662384156</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1532,7 +1532,7 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>7.740224145177155</v>
+        <v>7.739173496445657</v>
       </c>
       <c r="M25">
         <v>0</v>
@@ -1541,7 +1541,7 @@
         <v>0</v>
       </c>
       <c r="O25">
-        <v>30.95707243580268</v>
+        <v>15.09956839571368</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_7_14/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_7_14/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,1133 +415,1211 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>24.44727161803648</v>
+        <v>24.46824883375002</v>
       </c>
       <c r="C2">
-        <v>13.51450604720748</v>
+        <v>14.4655645065779</v>
       </c>
       <c r="D2">
-        <v>4.38121908103041</v>
+        <v>4.924520993378083</v>
       </c>
       <c r="E2">
-        <v>6.738132518955204</v>
+        <v>8.667005943496466</v>
       </c>
       <c r="F2">
-        <v>18.91129915119957</v>
+        <v>15.06550039079491</v>
       </c>
       <c r="G2">
-        <v>2.074401175087282</v>
+        <v>17.48196677004974</v>
       </c>
       <c r="H2">
-        <v>0</v>
-      </c>
-      <c r="I2">
-        <v>0</v>
+        <v>2.073533397864516</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>7.539801654241383</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>11.25248028375875</v>
       </c>
       <c r="L2">
-        <v>7.340065174678968</v>
+        <v>0</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>8.333885673276606</v>
       </c>
       <c r="O2">
-        <v>14.89662837978433</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>11.78772188593385</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>22.79550767265759</v>
+        <v>22.87302438991466</v>
       </c>
       <c r="C3">
-        <v>12.9493085239986</v>
+        <v>13.84233526410959</v>
       </c>
       <c r="D3">
-        <v>4.282214925676478</v>
+        <v>4.702610680580791</v>
       </c>
       <c r="E3">
-        <v>6.840890657284987</v>
+        <v>8.592981040498476</v>
       </c>
       <c r="F3">
-        <v>18.45906678293123</v>
+        <v>14.75520276638433</v>
       </c>
       <c r="G3">
-        <v>2.080711648881544</v>
+        <v>17.09864567803645</v>
       </c>
       <c r="H3">
-        <v>0</v>
-      </c>
-      <c r="I3">
-        <v>0</v>
+        <v>1.866988786727527</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>7.598251803815742</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>11.54759057552687</v>
       </c>
       <c r="L3">
-        <v>7.064955223889736</v>
+        <v>0</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>8.001854235067963</v>
       </c>
       <c r="O3">
-        <v>14.80728976276794</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>11.78733044359496</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>21.7218021037166</v>
+        <v>21.83422653881871</v>
       </c>
       <c r="C4">
-        <v>12.59053542470266</v>
+        <v>13.44441532571438</v>
       </c>
       <c r="D4">
-        <v>4.220476359617583</v>
+        <v>4.560255251508841</v>
       </c>
       <c r="E4">
-        <v>6.909569788637575</v>
+        <v>8.546911477572465</v>
       </c>
       <c r="F4">
-        <v>18.20384658050628</v>
+        <v>14.57779414945875</v>
       </c>
       <c r="G4">
-        <v>2.084698255154618</v>
+        <v>16.88547161395621</v>
       </c>
       <c r="H4">
-        <v>0</v>
-      </c>
-      <c r="I4">
-        <v>0</v>
+        <v>1.735899889539274</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>7.639445494611431</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>11.73701905011019</v>
       </c>
       <c r="L4">
-        <v>6.894297419730663</v>
+        <v>0</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>7.790716097876424</v>
       </c>
       <c r="O4">
-        <v>14.77467754517231</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>11.7994976390974</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>21.26918687758656</v>
+        <v>21.3959552590644</v>
       </c>
       <c r="C5">
-        <v>12.44152394528653</v>
+        <v>13.27858238722856</v>
       </c>
       <c r="D5">
-        <v>4.195099753338239</v>
+        <v>4.500752552149569</v>
       </c>
       <c r="E5">
-        <v>6.938906543718318</v>
+        <v>8.527977124787633</v>
       </c>
       <c r="F5">
-        <v>18.10547810672112</v>
+        <v>14.50882397305235</v>
       </c>
       <c r="G5">
-        <v>2.086351853714626</v>
+        <v>16.80416336373638</v>
       </c>
       <c r="H5">
-        <v>0</v>
-      </c>
-      <c r="I5">
-        <v>0</v>
+        <v>1.681389755976249</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>7.657516149479553</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>11.81622739797769</v>
       </c>
       <c r="L5">
-        <v>6.824409059750272</v>
+        <v>0</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>7.702926256260056</v>
       </c>
       <c r="O5">
-        <v>14.76673778455548</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>11.80744922457106</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>21.19311713083584</v>
+        <v>21.32227667986571</v>
       </c>
       <c r="C6">
-        <v>12.41661570347873</v>
+        <v>13.25082896882721</v>
       </c>
       <c r="D6">
-        <v>4.190873488724225</v>
+        <v>4.490783468486879</v>
       </c>
       <c r="E6">
-        <v>6.943857872148514</v>
+        <v>8.52482323827248</v>
       </c>
       <c r="F6">
-        <v>18.0894836473822</v>
+        <v>14.49757286001198</v>
       </c>
       <c r="G6">
-        <v>2.086628210176918</v>
+        <v>16.79099695218397</v>
       </c>
       <c r="H6">
-        <v>0</v>
-      </c>
-      <c r="I6">
-        <v>0</v>
+        <v>1.672272058009532</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>7.660592883362368</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>11.82950011483196</v>
       </c>
       <c r="L6">
-        <v>6.812786295084831</v>
+        <v>0</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>7.688245675212538</v>
       </c>
       <c r="O6">
-        <v>14.76573516241931</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>11.80894661349418</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>21.71575913919744</v>
+        <v>21.82837644288971</v>
       </c>
       <c r="C7">
-        <v>12.58853696956077</v>
+        <v>13.44219350662999</v>
       </c>
       <c r="D7">
-        <v>4.220134974034439</v>
+        <v>4.559458755516334</v>
       </c>
       <c r="E7">
-        <v>6.909960039816802</v>
+        <v>8.546656779468631</v>
       </c>
       <c r="F7">
-        <v>18.20249716312463</v>
+        <v>14.5768505048563</v>
       </c>
       <c r="G7">
-        <v>2.084720437521823</v>
+        <v>16.88435258991855</v>
       </c>
       <c r="H7">
-        <v>0</v>
-      </c>
-      <c r="I7">
-        <v>0</v>
+        <v>1.735169183291882</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>7.639684068154266</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>11.73807919068864</v>
       </c>
       <c r="L7">
-        <v>6.893356142909581</v>
+        <v>0</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>0</v>
+        <v>7.789539104540847</v>
       </c>
       <c r="O7">
-        <v>14.7745491356076</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>11.79959292638525</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>23.89003148258701</v>
+        <v>23.93050410820069</v>
       </c>
       <c r="C8">
-        <v>13.32214176576335</v>
+        <v>14.25392889369221</v>
       </c>
       <c r="D8">
-        <v>4.347291756462733</v>
+        <v>4.849296039598464</v>
       </c>
       <c r="E8">
-        <v>6.772369772824584</v>
+        <v>8.641607193458633</v>
       </c>
       <c r="F8">
-        <v>18.7507115345887</v>
+        <v>14.95580860420174</v>
       </c>
       <c r="G8">
-        <v>2.076554332017355</v>
+        <v>17.3451927261785</v>
       </c>
       <c r="H8">
-        <v>0</v>
-      </c>
-      <c r="I8">
-        <v>0</v>
+        <v>2.003192730599543</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>7.558823470194179</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>11.35249086786717</v>
       </c>
       <c r="L8">
-        <v>7.245621229927942</v>
+        <v>0</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>0</v>
+        <v>8.220953881799527</v>
       </c>
       <c r="O8">
-        <v>14.86106636315395</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>11.78493658724529</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>27.68643555605206</v>
+        <v>27.58408027433398</v>
       </c>
       <c r="C9">
-        <v>14.66238955753192</v>
+        <v>15.71891489950404</v>
       </c>
       <c r="D9">
-        <v>4.588265721115647</v>
+        <v>5.367733015392901</v>
       </c>
       <c r="E9">
-        <v>6.549593981628836</v>
+        <v>8.823153240684425</v>
       </c>
       <c r="F9">
-        <v>20.00317991977383</v>
+        <v>15.80112984129549</v>
       </c>
       <c r="G9">
-        <v>2.061386812116739</v>
+        <v>18.42411923112439</v>
       </c>
       <c r="H9">
-        <v>0</v>
-      </c>
-      <c r="I9">
-        <v>0</v>
+        <v>2.495699233986726</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>7.444689191225757</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>10.66456587252912</v>
       </c>
       <c r="L9">
-        <v>7.919031941479983</v>
+        <v>0</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>0</v>
+        <v>9.006358193906706</v>
       </c>
       <c r="O9">
-        <v>15.21724023537834</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>11.86009663625769</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>30.19774054785229</v>
+        <v>29.98339773615274</v>
       </c>
       <c r="C10">
-        <v>15.58157478719067</v>
+        <v>16.81396666452291</v>
       </c>
       <c r="D10">
-        <v>4.759198033938553</v>
+        <v>5.739983888029307</v>
       </c>
       <c r="E10">
-        <v>6.418763504607821</v>
+        <v>8.860939398082335</v>
       </c>
       <c r="F10">
-        <v>21.02945436486117</v>
+        <v>16.37077401787961</v>
       </c>
       <c r="G10">
-        <v>2.050696267229815</v>
+        <v>19.12107396200013</v>
       </c>
       <c r="H10">
-        <v>0</v>
-      </c>
-      <c r="I10">
-        <v>0</v>
+        <v>2.827114900169597</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>7.357879196259193</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>10.14369887301443</v>
       </c>
       <c r="L10">
-        <v>8.399167615180207</v>
+        <v>0</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>0</v>
+        <v>9.41309474353953</v>
       </c>
       <c r="O10">
-        <v>15.60499154674778</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>11.89990674867503</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>31.28143346280581</v>
+        <v>30.99501164461766</v>
       </c>
       <c r="C11">
-        <v>15.98470814194834</v>
+        <v>18.18722451842019</v>
       </c>
       <c r="D11">
-        <v>4.835458562796127</v>
+        <v>6.105547382930934</v>
       </c>
       <c r="E11">
-        <v>6.367414480996264</v>
+        <v>8.315756386709555</v>
       </c>
       <c r="F11">
-        <v>21.51875564358954</v>
+        <v>15.68524369311018</v>
       </c>
       <c r="G11">
-        <v>2.04591614161296</v>
+        <v>17.73581398457212</v>
       </c>
       <c r="H11">
-        <v>0</v>
-      </c>
-      <c r="I11">
-        <v>0</v>
+        <v>3.517152327512451</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>7.035327832040521</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>9.417344969661317</v>
       </c>
       <c r="L11">
-        <v>8.613787078857694</v>
+        <v>0</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>8.495523271752417</v>
       </c>
       <c r="O11">
-        <v>15.81100583559829</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>11.18857337295312</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>31.68349120130251</v>
+        <v>31.3632056141202</v>
       </c>
       <c r="C12">
-        <v>16.13515928015185</v>
+        <v>19.14719544004048</v>
       </c>
       <c r="D12">
-        <v>4.864109112049182</v>
+        <v>6.342562484961634</v>
       </c>
       <c r="E12">
-        <v>6.349240604922171</v>
+        <v>8.214949763357597</v>
       </c>
       <c r="F12">
-        <v>21.7072170610934</v>
+        <v>14.96490225352817</v>
       </c>
       <c r="G12">
-        <v>2.044116622562496</v>
+        <v>16.38357391595718</v>
       </c>
       <c r="H12">
-        <v>0</v>
-      </c>
-      <c r="I12">
-        <v>0</v>
+        <v>4.611523246011611</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>6.777656557914367</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>8.973538940044891</v>
       </c>
       <c r="L12">
-        <v>8.694473093230361</v>
+        <v>0</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>0</v>
+        <v>7.66897370074657</v>
       </c>
       <c r="O12">
-        <v>15.89343472089667</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>10.56587169195998</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>31.59726848192951</v>
+        <v>31.27108913672139</v>
       </c>
       <c r="C13">
-        <v>16.10285570113218</v>
+        <v>19.86623985625811</v>
       </c>
       <c r="D13">
-        <v>4.857949003239838</v>
+        <v>6.500220613970617</v>
       </c>
       <c r="E13">
-        <v>6.353096523966154</v>
+        <v>8.452897168671788</v>
       </c>
       <c r="F13">
-        <v>21.66648812883568</v>
+        <v>14.15478565271674</v>
       </c>
       <c r="G13">
-        <v>2.044503731654681</v>
+        <v>14.93551644492893</v>
       </c>
       <c r="H13">
-        <v>0</v>
-      </c>
-      <c r="I13">
-        <v>0</v>
+        <v>5.829133865102467</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>6.555240514816169</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>8.736846146821172</v>
       </c>
       <c r="L13">
-        <v>8.677122490307749</v>
+        <v>0</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>0</v>
+        <v>6.861923452003758</v>
       </c>
       <c r="O13">
-        <v>15.87548349950584</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>9.970261087873359</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>31.31467684204941</v>
+        <v>30.99723634071719</v>
       </c>
       <c r="C14">
-        <v>15.99713030070609</v>
+        <v>20.26950400693753</v>
       </c>
       <c r="D14">
-        <v>4.83782028665488</v>
+        <v>6.576603728139752</v>
       </c>
       <c r="E14">
-        <v>6.365893251811469</v>
+        <v>8.804084926645569</v>
       </c>
       <c r="F14">
-        <v>21.53419714829409</v>
+        <v>13.54107179038891</v>
       </c>
       <c r="G14">
-        <v>2.045767889461691</v>
+        <v>13.86666399725824</v>
       </c>
       <c r="H14">
-        <v>0</v>
-      </c>
-      <c r="I14">
-        <v>0</v>
+        <v>6.725130405972932</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>6.417988509017871</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>8.681987959192968</v>
       </c>
       <c r="L14">
-        <v>8.620437095743062</v>
+        <v>0</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>0</v>
+        <v>6.32133163723152</v>
       </c>
       <c r="O14">
-        <v>15.81769798161531</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P14">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>9.569464424562574</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>31.14050261596033</v>
+        <v>30.83069360871102</v>
       </c>
       <c r="C15">
-        <v>15.93208186494502</v>
+        <v>20.31462675554063</v>
       </c>
       <c r="D15">
-        <v>4.825460887844197</v>
+        <v>6.57795645558929</v>
       </c>
       <c r="E15">
-        <v>6.373900133071346</v>
+        <v>8.906263448247557</v>
       </c>
       <c r="F15">
-        <v>21.45357696276063</v>
+        <v>13.37423097550886</v>
       </c>
       <c r="G15">
-        <v>2.046543563065042</v>
+        <v>13.58866561224478</v>
       </c>
       <c r="H15">
-        <v>0</v>
-      </c>
-      <c r="I15">
-        <v>0</v>
+        <v>6.929299020921944</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>6.393108528074157</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>8.704454622644615</v>
       </c>
       <c r="L15">
-        <v>8.585638372223112</v>
+        <v>0</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>0</v>
+        <v>6.189962789290295</v>
       </c>
       <c r="O15">
-        <v>15.78288206583785</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P15">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>9.480653635139449</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>30.12574816509112</v>
+        <v>29.86632330165045</v>
       </c>
       <c r="C16">
-        <v>15.55492258844876</v>
+        <v>19.75856022238986</v>
       </c>
       <c r="D16">
-        <v>4.754182996335386</v>
+        <v>6.402191587196516</v>
       </c>
       <c r="E16">
-        <v>6.422291677703912</v>
+        <v>8.82609642820943</v>
       </c>
       <c r="F16">
-        <v>20.99792422303132</v>
+        <v>13.24989540460952</v>
       </c>
       <c r="G16">
-        <v>2.0510102194935</v>
+        <v>13.49563108421192</v>
       </c>
       <c r="H16">
-        <v>0</v>
-      </c>
-      <c r="I16">
-        <v>0</v>
+        <v>6.65488007736449</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>6.476911824667425</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>8.985591743364523</v>
       </c>
       <c r="L16">
-        <v>8.385061695629563</v>
+        <v>0</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>0</v>
+        <v>6.146664459642972</v>
       </c>
       <c r="O16">
-        <v>15.59213787464002</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P16">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>9.577940028608815</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>29.48828190209919</v>
+        <v>29.26238224149417</v>
       </c>
       <c r="C17">
-        <v>15.31966440744952</v>
+        <v>19.09856601412851</v>
       </c>
       <c r="D17">
-        <v>4.710063372316869</v>
+        <v>6.222078573042503</v>
       </c>
       <c r="E17">
-        <v>6.454136021262277</v>
+        <v>8.550506651400632</v>
       </c>
       <c r="F17">
-        <v>20.72410385624062</v>
+        <v>13.49423380242029</v>
       </c>
       <c r="G17">
-        <v>2.0537707262546</v>
+        <v>14.01775958091778</v>
       </c>
       <c r="H17">
-        <v>0</v>
-      </c>
-      <c r="I17">
-        <v>0</v>
+        <v>5.919264187340419</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>6.613260121550786</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>9.222624369719828</v>
       </c>
       <c r="L17">
-        <v>8.261010416395639</v>
+        <v>0</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>0</v>
+        <v>6.396763060430187</v>
       </c>
       <c r="O17">
-        <v>15.48282662235846</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P17">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>9.865922536969105</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>29.1160938104411</v>
+        <v>28.91504446126086</v>
       </c>
       <c r="C18">
-        <v>15.18293938168826</v>
+        <v>18.28737771882846</v>
       </c>
       <c r="D18">
-        <v>4.684546595666894</v>
+        <v>6.02103273795804</v>
       </c>
       <c r="E18">
-        <v>6.473214426212593</v>
+        <v>8.241801658240931</v>
       </c>
       <c r="F18">
-        <v>20.56872511028515</v>
+        <v>14.0729233621848</v>
       </c>
       <c r="G18">
-        <v>2.05536640028115</v>
+        <v>15.10960416735919</v>
       </c>
       <c r="H18">
-        <v>0</v>
-      </c>
-      <c r="I18">
-        <v>0</v>
+        <v>4.753159400164823</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>6.810186090538313</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>9.488178805150941</v>
       </c>
       <c r="L18">
-        <v>8.189303757213466</v>
+        <v>0</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>0</v>
+        <v>6.974732163187166</v>
       </c>
       <c r="O18">
-        <v>15.42273395848626</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P18">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>10.34726736498013</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>28.98912293355538</v>
+        <v>28.80629422873039</v>
       </c>
       <c r="C19">
-        <v>15.13640605530095</v>
+        <v>17.43631315064415</v>
       </c>
       <c r="D19">
-        <v>4.675883359696854</v>
+        <v>5.822487460820945</v>
       </c>
       <c r="E19">
-        <v>6.479802179443377</v>
+        <v>8.20171913748535</v>
       </c>
       <c r="F19">
-        <v>20.51648163780288</v>
+        <v>14.86641117038687</v>
       </c>
       <c r="G19">
-        <v>2.05590806442166</v>
+        <v>16.56069920595708</v>
       </c>
       <c r="H19">
-        <v>0</v>
-      </c>
-      <c r="I19">
-        <v>0</v>
+        <v>3.507690000800401</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>7.044559468025874</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>9.813053321779208</v>
       </c>
       <c r="L19">
-        <v>8.164965412703081</v>
+        <v>0</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>7.820969936729873</v>
       </c>
       <c r="O19">
-        <v>15.4028600850595</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P19">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>10.95240030026446</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>29.55671313906756</v>
+        <v>29.37214201952546</v>
       </c>
       <c r="C20">
-        <v>15.34485444569594</v>
+        <v>16.53748243181271</v>
       </c>
       <c r="D20">
-        <v>4.71477460162301</v>
+        <v>5.645655172573991</v>
       </c>
       <c r="E20">
-        <v>6.45066656009088</v>
+        <v>8.846622518653529</v>
       </c>
       <c r="F20">
-        <v>20.75303397314445</v>
+        <v>16.21198957672043</v>
       </c>
       <c r="G20">
-        <v>2.053476056925885</v>
+        <v>18.92125813099321</v>
       </c>
       <c r="H20">
-        <v>0</v>
-      </c>
-      <c r="I20">
-        <v>0</v>
+        <v>2.739571553866342</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>7.377076603088629</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>10.27474431589108</v>
       </c>
       <c r="L20">
-        <v>8.274253015406929</v>
+        <v>0</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>0</v>
+        <v>9.302409651266752</v>
       </c>
       <c r="O20">
-        <v>15.49417405792434</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P20">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>11.88061908679015</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>31.39790541456826</v>
+        <v>31.12875810911324</v>
       </c>
       <c r="C21">
-        <v>16.02824461919836</v>
+        <v>17.19075923772615</v>
       </c>
       <c r="D21">
-        <v>4.843738845294677</v>
+        <v>5.88440005829206</v>
       </c>
       <c r="E21">
-        <v>6.362099239894454</v>
+        <v>9.019636176995597</v>
       </c>
       <c r="F21">
-        <v>21.57296846682998</v>
+        <v>16.83814401426765</v>
       </c>
       <c r="G21">
-        <v>2.045396298856305</v>
+        <v>19.79776079844898</v>
       </c>
       <c r="H21">
-        <v>0</v>
-      </c>
-      <c r="I21">
-        <v>0</v>
+        <v>3.007123983457515</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>7.372749311327322</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>9.987115336680523</v>
       </c>
       <c r="L21">
-        <v>8.63710313240786</v>
+        <v>0</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>0</v>
+        <v>9.803611597256399</v>
       </c>
       <c r="O21">
-        <v>15.83454999248991</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P21">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>12.06817767770274</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>32.55283948859275</v>
+        <v>32.22522762725163</v>
       </c>
       <c r="C22">
-        <v>16.46200450331092</v>
+        <v>17.65401121789068</v>
       </c>
       <c r="D22">
-        <v>4.926693211862125</v>
+        <v>6.046375481555988</v>
       </c>
       <c r="E22">
-        <v>6.311673927425862</v>
+        <v>9.084529955412279</v>
       </c>
       <c r="F22">
-        <v>22.12732448768095</v>
+        <v>17.2001532637548</v>
       </c>
       <c r="G22">
-        <v>2.040176859088012</v>
+        <v>20.28521605685327</v>
       </c>
       <c r="H22">
-        <v>0</v>
-      </c>
-      <c r="I22">
-        <v>0</v>
+        <v>3.172250605945488</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>7.359518287127812</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>9.778312294258122</v>
       </c>
       <c r="L22">
-        <v>8.87082140945923</v>
+        <v>0</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>0</v>
+        <v>10.05613004306879</v>
       </c>
       <c r="O22">
-        <v>16.08280406872791</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P22">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>12.16153098827722</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>31.94081290418558</v>
+        <v>31.64460190487253</v>
       </c>
       <c r="C23">
-        <v>16.23168915637932</v>
+        <v>17.40828163701075</v>
       </c>
       <c r="D23">
-        <v>4.882544251819787</v>
+        <v>5.960489699768294</v>
       </c>
       <c r="E23">
-        <v>6.337870303496695</v>
+        <v>9.049921976407065</v>
       </c>
       <c r="F23">
-        <v>21.82977825202044</v>
+        <v>17.00608918358346</v>
       </c>
       <c r="G23">
-        <v>2.042957446332631</v>
+        <v>20.02349276581463</v>
       </c>
       <c r="H23">
-        <v>0</v>
-      </c>
-      <c r="I23">
-        <v>0</v>
+        <v>3.084394642724573</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>7.365955255789208</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>9.888740258128408</v>
       </c>
       <c r="L23">
-        <v>8.746405467381116</v>
+        <v>0</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>0</v>
+        <v>9.922090938928175</v>
       </c>
       <c r="O23">
-        <v>15.94789856145912</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P23">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>12.11033958217583</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>29.52579314155294</v>
+        <v>29.34456921035973</v>
       </c>
       <c r="C24">
-        <v>15.33347061040364</v>
+        <v>16.4446026527333</v>
       </c>
       <c r="D24">
-        <v>4.712645126770144</v>
+        <v>5.622901120422047</v>
       </c>
       <c r="E24">
-        <v>6.452232710233819</v>
+        <v>8.918210307688527</v>
       </c>
       <c r="F24">
-        <v>20.73994829572009</v>
+        <v>16.29026620135988</v>
       </c>
       <c r="G24">
-        <v>2.053609249974309</v>
+        <v>19.06711506653906</v>
       </c>
       <c r="H24">
-        <v>0</v>
-      </c>
-      <c r="I24">
-        <v>0</v>
+        <v>2.745475560986115</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>7.403674230553767</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>10.32832238988222</v>
       </c>
       <c r="L24">
-        <v>8.268267241560103</v>
+        <v>0</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>0</v>
+        <v>9.39846079752806</v>
       </c>
       <c r="O24">
-        <v>15.48903532296538</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P24">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>11.94594590120782</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>26.70873115463855</v>
+        <v>26.64555123224582</v>
       </c>
       <c r="C25">
-        <v>14.31098931771824</v>
+        <v>15.33689614044162</v>
       </c>
       <c r="D25">
-        <v>4.524083469846672</v>
+        <v>5.233014480972284</v>
       </c>
       <c r="E25">
-        <v>6.604419374722107</v>
+        <v>8.774500599465286</v>
       </c>
       <c r="F25">
-        <v>19.64552419598267</v>
+        <v>15.56180907762961</v>
       </c>
       <c r="G25">
-        <v>2.065405662384156</v>
+        <v>18.11369596134603</v>
       </c>
       <c r="H25">
-        <v>0</v>
-      </c>
-      <c r="I25">
-        <v>0</v>
+        <v>2.365889092663061</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>7.470470822100575</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>10.84291407198308</v>
       </c>
       <c r="L25">
-        <v>7.739173496445657</v>
+        <v>0</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>0</v>
+        <v>8.800740016376066</v>
       </c>
       <c r="O25">
-        <v>15.09956839571368</v>
+        <v>0</v>
+      </c>
+      <c r="P25">
+        <v>0</v>
+      </c>
+      <c r="Q25">
+        <v>11.82788879222162</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_7_14/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_7_14/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1205 +421,1355 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>24.46824883375002</v>
+        <v>24.47049703825388</v>
       </c>
       <c r="C2">
-        <v>14.4655645065779</v>
+        <v>14.56535725873857</v>
       </c>
       <c r="D2">
-        <v>4.924520993378083</v>
+        <v>4.97116456730002</v>
       </c>
       <c r="E2">
-        <v>8.667005943496466</v>
+        <v>8.550221046047541</v>
       </c>
       <c r="F2">
-        <v>15.06550039079491</v>
+        <v>14.91496264676301</v>
       </c>
       <c r="G2">
-        <v>17.48196677004974</v>
+        <v>16.47310295264546</v>
       </c>
       <c r="H2">
-        <v>2.073533397864516</v>
+        <v>2.071687020431606</v>
       </c>
       <c r="J2">
-        <v>7.539801654241383</v>
+        <v>8.159679691892768</v>
       </c>
       <c r="K2">
-        <v>11.25248028375875</v>
+        <v>11.12469433230049</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>10.30370871903335</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>6.136251220355038</v>
       </c>
       <c r="N2">
-        <v>8.333885673276606</v>
+        <v>0</v>
       </c>
       <c r="O2">
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0</v>
+        <v>8.366425519026876</v>
       </c>
       <c r="Q2">
-        <v>11.78772188593385</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>11.69180023855413</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>22.87302438991466</v>
+        <v>22.88485656030689</v>
       </c>
       <c r="C3">
-        <v>13.84233526410959</v>
+        <v>13.84372725216555</v>
       </c>
       <c r="D3">
-        <v>4.702610680580791</v>
+        <v>4.732507675366501</v>
       </c>
       <c r="E3">
-        <v>8.592981040498476</v>
+        <v>8.490077976219721</v>
       </c>
       <c r="F3">
-        <v>14.75520276638433</v>
+        <v>14.64098624963241</v>
       </c>
       <c r="G3">
-        <v>17.09864567803645</v>
+        <v>16.13091999116979</v>
       </c>
       <c r="H3">
-        <v>1.866988786727527</v>
+        <v>1.881127652370818</v>
       </c>
       <c r="J3">
-        <v>7.598251803815742</v>
+        <v>8.191223161516326</v>
       </c>
       <c r="K3">
-        <v>11.54759057552687</v>
+        <v>11.41259802428399</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>10.53331415667436</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>6.370517114471632</v>
       </c>
       <c r="N3">
-        <v>8.001854235067963</v>
+        <v>0</v>
       </c>
       <c r="O3">
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0</v>
+        <v>8.038973494118769</v>
       </c>
       <c r="Q3">
-        <v>11.78733044359496</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>11.70986727892014</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>21.83422653881871</v>
+        <v>21.85224326636125</v>
       </c>
       <c r="C4">
-        <v>13.44441532571438</v>
+        <v>13.38232199099918</v>
       </c>
       <c r="D4">
-        <v>4.560255251508841</v>
+        <v>4.579361139731376</v>
       </c>
       <c r="E4">
-        <v>8.546911477572465</v>
+        <v>8.452557808282389</v>
       </c>
       <c r="F4">
-        <v>14.57779414945875</v>
+        <v>14.48384789539603</v>
       </c>
       <c r="G4">
-        <v>16.88547161395621</v>
+        <v>15.94377677694083</v>
       </c>
       <c r="H4">
-        <v>1.735899889539274</v>
+        <v>1.760133122332197</v>
       </c>
       <c r="J4">
-        <v>7.639445494611431</v>
+        <v>8.21344388185841</v>
       </c>
       <c r="K4">
-        <v>11.73701905011019</v>
+        <v>11.59597097994108</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>10.68218017971554</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>6.537742241354538</v>
       </c>
       <c r="N4">
-        <v>7.790716097876424</v>
+        <v>0</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0</v>
+        <v>7.83106365133485</v>
       </c>
       <c r="Q4">
-        <v>11.7994976390974</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>11.73129256572427</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>21.3959552590644</v>
+        <v>21.41658211516377</v>
       </c>
       <c r="C5">
-        <v>13.27858238722856</v>
+        <v>13.18989669880284</v>
       </c>
       <c r="D5">
-        <v>4.500752552149569</v>
+        <v>4.515339863479725</v>
       </c>
       <c r="E5">
-        <v>8.527977124787633</v>
+        <v>8.437113096247554</v>
       </c>
       <c r="F5">
-        <v>14.50882397305235</v>
+        <v>14.42260222721835</v>
       </c>
       <c r="G5">
-        <v>16.80416336373638</v>
+        <v>15.87320656186382</v>
       </c>
       <c r="H5">
-        <v>1.681389755976249</v>
+        <v>1.709809248323286</v>
       </c>
       <c r="J5">
-        <v>7.657516149479553</v>
+        <v>8.223196441134416</v>
       </c>
       <c r="K5">
-        <v>11.81622739797769</v>
+        <v>11.67233315929692</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>10.74483726126357</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>6.611376815614587</v>
       </c>
       <c r="N5">
-        <v>7.702926256260056</v>
+        <v>0</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
       <c r="P5">
-        <v>0</v>
+        <v>7.744701314620682</v>
       </c>
       <c r="Q5">
-        <v>11.80744922457106</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>11.74250931528816</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>21.32227667986571</v>
+        <v>21.34334284210712</v>
       </c>
       <c r="C6">
-        <v>13.25082896882721</v>
+        <v>13.15768575177626</v>
       </c>
       <c r="D6">
-        <v>4.490783468486879</v>
+        <v>4.504613388810562</v>
       </c>
       <c r="E6">
-        <v>8.52482323827248</v>
+        <v>8.434538981859269</v>
       </c>
       <c r="F6">
-        <v>14.49757286001198</v>
+        <v>14.41260073774852</v>
       </c>
       <c r="G6">
-        <v>16.79099695218397</v>
+        <v>15.86182912073716</v>
       </c>
       <c r="H6">
-        <v>1.672272058009532</v>
+        <v>1.701391138092367</v>
       </c>
       <c r="J6">
-        <v>7.660592883362368</v>
+        <v>8.224857397928247</v>
       </c>
       <c r="K6">
-        <v>11.82950011483196</v>
+        <v>11.68511126565949</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>10.75536208463666</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>6.623924467837464</v>
       </c>
       <c r="N6">
-        <v>7.688245675212538</v>
+        <v>0</v>
       </c>
       <c r="O6">
         <v>0</v>
       </c>
       <c r="P6">
-        <v>0</v>
+        <v>7.730264746778097</v>
       </c>
       <c r="Q6">
-        <v>11.80894661349418</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>11.74451869171553</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>21.82837644288971</v>
+        <v>21.84618042209673</v>
       </c>
       <c r="C7">
-        <v>13.44219350662999</v>
+        <v>13.3748126329645</v>
       </c>
       <c r="D7">
-        <v>4.559458755516334</v>
+        <v>4.581894892409437</v>
       </c>
       <c r="E7">
-        <v>8.546656779468631</v>
+        <v>8.452200975467107</v>
       </c>
       <c r="F7">
-        <v>14.5768505048563</v>
+        <v>14.46832931213853</v>
       </c>
       <c r="G7">
-        <v>16.88435258991855</v>
+        <v>16.03390636411704</v>
       </c>
       <c r="H7">
-        <v>1.735169183291882</v>
+        <v>1.758979951554709</v>
       </c>
       <c r="J7">
-        <v>7.639684068154266</v>
+        <v>8.178542944806873</v>
       </c>
       <c r="K7">
-        <v>11.73807919068864</v>
+        <v>11.59264014532164</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>10.67846299202181</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>6.536976032790013</v>
       </c>
       <c r="N7">
-        <v>7.789539104540847</v>
+        <v>0</v>
       </c>
       <c r="O7">
         <v>0</v>
       </c>
       <c r="P7">
-        <v>0</v>
+        <v>7.829370235340392</v>
       </c>
       <c r="Q7">
-        <v>11.79959292638525</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>11.72114586890568</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>23.93050410820069</v>
+        <v>23.93525461720462</v>
       </c>
       <c r="C8">
-        <v>14.25392889369221</v>
+        <v>14.30499760609903</v>
       </c>
       <c r="D8">
-        <v>4.849296039598464</v>
+        <v>4.901020372243903</v>
       </c>
       <c r="E8">
-        <v>8.641607193458633</v>
+        <v>8.529273689204638</v>
       </c>
       <c r="F8">
-        <v>14.95580860420174</v>
+        <v>14.77064848949351</v>
       </c>
       <c r="G8">
-        <v>17.3451927261785</v>
+        <v>16.64584483209967</v>
       </c>
       <c r="H8">
-        <v>2.003192730599543</v>
+        <v>2.005330646449077</v>
       </c>
       <c r="J8">
-        <v>7.558823470194179</v>
+        <v>8.055457089176235</v>
       </c>
       <c r="K8">
-        <v>11.35249086786717</v>
+        <v>11.20828588562515</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>10.36811552699289</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>6.203463035446262</v>
       </c>
       <c r="N8">
-        <v>8.220953881799527</v>
+        <v>0</v>
       </c>
       <c r="O8">
         <v>0</v>
       </c>
       <c r="P8">
-        <v>0</v>
+        <v>8.253326351423357</v>
       </c>
       <c r="Q8">
-        <v>11.78493658724529</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>11.66182669569264</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>27.58408027433398</v>
+        <v>27.56595298061995</v>
       </c>
       <c r="C9">
-        <v>15.71891489950404</v>
+        <v>15.99447216071752</v>
       </c>
       <c r="D9">
-        <v>5.367733015392901</v>
+        <v>5.460082846924448</v>
       </c>
       <c r="E9">
-        <v>8.823153240684425</v>
+        <v>8.67652103837807</v>
       </c>
       <c r="F9">
-        <v>15.80112984129549</v>
+        <v>15.5052170587671</v>
       </c>
       <c r="G9">
-        <v>18.42411923112439</v>
+        <v>17.68841017118569</v>
       </c>
       <c r="H9">
-        <v>2.495699233986726</v>
+        <v>2.459168374259866</v>
       </c>
       <c r="J9">
-        <v>7.444689191225757</v>
+        <v>7.961653653971977</v>
       </c>
       <c r="K9">
-        <v>10.66456587252912</v>
+        <v>10.52376936166745</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>9.838537963772714</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>5.759283380247269</v>
       </c>
       <c r="N9">
-        <v>9.006358193906706</v>
+        <v>0</v>
       </c>
       <c r="O9">
         <v>0</v>
       </c>
       <c r="P9">
-        <v>0</v>
+        <v>9.029067994362251</v>
       </c>
       <c r="Q9">
-        <v>11.86009663625769</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>11.67007845218801</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>29.98339773615274</v>
+        <v>29.94817544424051</v>
       </c>
       <c r="C10">
-        <v>16.81396666452291</v>
+        <v>17.20120179366791</v>
       </c>
       <c r="D10">
-        <v>5.739983888029307</v>
+        <v>5.87358533468737</v>
       </c>
       <c r="E10">
-        <v>8.860939398082335</v>
+        <v>8.695712275522069</v>
       </c>
       <c r="F10">
-        <v>16.37077401787961</v>
+        <v>15.92222697609694</v>
       </c>
       <c r="G10">
-        <v>19.12107396200013</v>
+        <v>18.84919970159462</v>
       </c>
       <c r="H10">
-        <v>2.827114900169597</v>
+        <v>2.761812753461952</v>
       </c>
       <c r="J10">
-        <v>7.357879196259193</v>
+        <v>7.689722985616131</v>
       </c>
       <c r="K10">
-        <v>10.14369887301443</v>
+        <v>9.981777656209815</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>9.442677207191561</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>5.506162140500876</v>
       </c>
       <c r="N10">
-        <v>9.41309474353953</v>
+        <v>0</v>
       </c>
       <c r="O10">
         <v>0</v>
       </c>
       <c r="P10">
-        <v>0</v>
+        <v>9.426331059344603</v>
       </c>
       <c r="Q10">
-        <v>11.89990674867503</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>11.60226071019087</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>30.99501164461766</v>
+        <v>30.95276228987483</v>
       </c>
       <c r="C11">
-        <v>18.18722451842019</v>
+        <v>18.46732207644238</v>
       </c>
       <c r="D11">
-        <v>6.105547382930934</v>
+        <v>6.266299440527797</v>
       </c>
       <c r="E11">
-        <v>8.315756386709555</v>
+        <v>8.191211287244291</v>
       </c>
       <c r="F11">
-        <v>15.68524369311018</v>
+        <v>15.14066511213327</v>
       </c>
       <c r="G11">
-        <v>17.73581398457212</v>
+        <v>18.63298223071463</v>
       </c>
       <c r="H11">
-        <v>3.517152327512451</v>
+        <v>3.454704940607789</v>
       </c>
       <c r="J11">
-        <v>7.035327832040521</v>
+        <v>7.084060940960203</v>
       </c>
       <c r="K11">
-        <v>9.417344969661317</v>
+        <v>9.327255397177904</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>9.053304637121329</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>4.937732924768039</v>
       </c>
       <c r="N11">
-        <v>8.495523271752417</v>
+        <v>0</v>
       </c>
       <c r="O11">
         <v>0</v>
       </c>
       <c r="P11">
-        <v>0</v>
+        <v>8.488403127377371</v>
       </c>
       <c r="Q11">
-        <v>11.18857337295312</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>10.8353309769215</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>31.3632056141202</v>
+        <v>31.31893481843826</v>
       </c>
       <c r="C12">
-        <v>19.14719544004048</v>
+        <v>19.3215669555316</v>
       </c>
       <c r="D12">
-        <v>6.342562484961634</v>
+        <v>6.507406486588481</v>
       </c>
       <c r="E12">
-        <v>8.214949763357597</v>
+        <v>8.116779378647063</v>
       </c>
       <c r="F12">
-        <v>14.96490225352817</v>
+        <v>14.42058003876861</v>
       </c>
       <c r="G12">
-        <v>16.38357391595718</v>
+        <v>17.89010763651795</v>
       </c>
       <c r="H12">
-        <v>4.611523246011611</v>
+        <v>4.562203754823132</v>
       </c>
       <c r="J12">
-        <v>6.777656557914367</v>
+        <v>6.783786673194346</v>
       </c>
       <c r="K12">
-        <v>8.973538940044891</v>
+        <v>8.968717997594441</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>8.873902280403692</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>4.547146411834594</v>
       </c>
       <c r="N12">
-        <v>7.66897370074657</v>
+        <v>0</v>
       </c>
       <c r="O12">
         <v>0</v>
       </c>
       <c r="P12">
-        <v>0</v>
+        <v>7.647581115559962</v>
       </c>
       <c r="Q12">
-        <v>10.56587169195998</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>10.2297401750298</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>31.27108913672139</v>
+        <v>31.22886220908053</v>
       </c>
       <c r="C13">
-        <v>19.86623985625811</v>
+        <v>19.94014523125578</v>
       </c>
       <c r="D13">
-        <v>6.500220613970617</v>
+        <v>6.643636173354207</v>
       </c>
       <c r="E13">
-        <v>8.452897168671788</v>
+        <v>8.370511110234984</v>
       </c>
       <c r="F13">
-        <v>14.15478565271674</v>
+        <v>13.71970367532121</v>
       </c>
       <c r="G13">
-        <v>14.93551644492893</v>
+        <v>16.45099554909957</v>
       </c>
       <c r="H13">
-        <v>5.829133865102467</v>
+        <v>5.792505891879589</v>
       </c>
       <c r="J13">
-        <v>6.555240514816169</v>
+        <v>6.696092940434709</v>
       </c>
       <c r="K13">
-        <v>8.736846146821172</v>
+        <v>8.816875884092273</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>8.812155351357799</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>4.311256503753098</v>
       </c>
       <c r="N13">
-        <v>6.861923452003758</v>
+        <v>0</v>
       </c>
       <c r="O13">
         <v>0</v>
       </c>
       <c r="P13">
-        <v>0</v>
+        <v>6.831485757250428</v>
       </c>
       <c r="Q13">
-        <v>9.970261087873359</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>9.730743526147698</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>30.99723634071719</v>
+        <v>30.95821118551386</v>
       </c>
       <c r="C14">
-        <v>20.26950400693753</v>
+        <v>20.27424500998848</v>
       </c>
       <c r="D14">
-        <v>6.576603728139752</v>
+        <v>6.693214221657396</v>
       </c>
       <c r="E14">
-        <v>8.804084926645569</v>
+        <v>8.726480016844974</v>
       </c>
       <c r="F14">
-        <v>13.54107179038891</v>
+        <v>13.23061984437395</v>
       </c>
       <c r="G14">
-        <v>13.86666399725824</v>
+        <v>15.12045333761311</v>
       </c>
       <c r="H14">
-        <v>6.725130405972932</v>
+        <v>6.696139766144713</v>
       </c>
       <c r="J14">
-        <v>6.417988509017871</v>
+        <v>6.710147874828308</v>
       </c>
       <c r="K14">
-        <v>8.681987959192968</v>
+        <v>8.80617849157642</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>8.812963402798371</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>4.240180118131068</v>
       </c>
       <c r="N14">
-        <v>6.32133163723152</v>
+        <v>0</v>
       </c>
       <c r="O14">
         <v>0</v>
       </c>
       <c r="P14">
-        <v>0</v>
+        <v>6.287423282851372</v>
       </c>
       <c r="Q14">
-        <v>9.569464424562574</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>9.429003129721826</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>30.83069360871102</v>
+        <v>30.79333651683012</v>
       </c>
       <c r="C15">
-        <v>20.31462675554063</v>
+        <v>20.30359455061445</v>
       </c>
       <c r="D15">
-        <v>6.57795645558929</v>
+        <v>6.683029637386635</v>
       </c>
       <c r="E15">
-        <v>8.906263448247557</v>
+        <v>8.829791907809939</v>
       </c>
       <c r="F15">
-        <v>13.37423097550886</v>
+        <v>13.11431745587193</v>
       </c>
       <c r="G15">
-        <v>13.58866561224478</v>
+        <v>14.66385971960917</v>
       </c>
       <c r="H15">
-        <v>6.929299020921944</v>
+        <v>6.902514299548409</v>
       </c>
       <c r="J15">
-        <v>6.393108528074157</v>
+        <v>6.746627091398329</v>
       </c>
       <c r="K15">
-        <v>8.704454622644615</v>
+        <v>8.834879899225708</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>8.825269554665125</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>4.254622790932201</v>
       </c>
       <c r="N15">
-        <v>6.189962789290295</v>
+        <v>0</v>
       </c>
       <c r="O15">
         <v>0</v>
       </c>
       <c r="P15">
-        <v>0</v>
+        <v>6.156465829924237</v>
       </c>
       <c r="Q15">
-        <v>9.480653635139449</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>9.377068013583997</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>29.86632330165045</v>
+        <v>29.83741548771006</v>
       </c>
       <c r="C16">
-        <v>19.75856022238986</v>
+        <v>19.75680410353274</v>
       </c>
       <c r="D16">
-        <v>6.402191587196516</v>
+        <v>6.466085991323587</v>
       </c>
       <c r="E16">
-        <v>8.82609642820943</v>
+        <v>8.757364040541402</v>
       </c>
       <c r="F16">
-        <v>13.24989540460952</v>
+        <v>13.15447710075044</v>
       </c>
       <c r="G16">
-        <v>13.49563108421192</v>
+        <v>13.62712125813191</v>
       </c>
       <c r="H16">
-        <v>6.65488007736449</v>
+        <v>6.633954928199259</v>
       </c>
       <c r="J16">
-        <v>6.476911824667425</v>
+        <v>7.063513723943314</v>
       </c>
       <c r="K16">
-        <v>8.985591743364523</v>
+        <v>9.096179051957201</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>8.932128951273949</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>4.497719235434776</v>
       </c>
       <c r="N16">
-        <v>6.146664459642972</v>
+        <v>0</v>
       </c>
       <c r="O16">
         <v>0</v>
       </c>
       <c r="P16">
-        <v>0</v>
+        <v>6.123715035232403</v>
       </c>
       <c r="Q16">
-        <v>9.577940028608815</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>9.579650118869068</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>29.26238224149417</v>
+        <v>29.23802006329315</v>
       </c>
       <c r="C17">
-        <v>19.09856601412851</v>
+        <v>19.13526223593029</v>
       </c>
       <c r="D17">
-        <v>6.222078573042503</v>
+        <v>6.273952335965152</v>
       </c>
       <c r="E17">
-        <v>8.550506651400632</v>
+        <v>8.484506575633297</v>
       </c>
       <c r="F17">
-        <v>13.49423380242029</v>
+        <v>13.43731434833537</v>
       </c>
       <c r="G17">
-        <v>14.01775958091778</v>
+        <v>13.69993678041575</v>
       </c>
       <c r="H17">
-        <v>5.919264187340419</v>
+        <v>5.899726708256582</v>
       </c>
       <c r="J17">
-        <v>6.613260121550786</v>
+        <v>7.291080114076181</v>
       </c>
       <c r="K17">
-        <v>9.222624369719828</v>
+        <v>9.307649911814261</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>9.034901996141711</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>4.700963322461816</v>
       </c>
       <c r="N17">
-        <v>6.396763060430187</v>
+        <v>0</v>
       </c>
       <c r="O17">
         <v>0</v>
       </c>
       <c r="P17">
-        <v>0</v>
+        <v>6.382756896747273</v>
       </c>
       <c r="Q17">
-        <v>9.865922536969105</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <v>9.885067560654242</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>28.91504446126086</v>
+        <v>28.89255566725485</v>
       </c>
       <c r="C18">
-        <v>18.28737771882846</v>
+        <v>18.39925971625753</v>
       </c>
       <c r="D18">
-        <v>6.02103273795804</v>
+        <v>6.078110310642526</v>
       </c>
       <c r="E18">
-        <v>8.241801658240931</v>
+        <v>8.169317442902804</v>
       </c>
       <c r="F18">
-        <v>14.0729233621848</v>
+        <v>13.98108712138249</v>
       </c>
       <c r="G18">
-        <v>15.10960416735919</v>
+        <v>14.5335925513839</v>
       </c>
       <c r="H18">
-        <v>4.753159400164823</v>
+        <v>4.730701177443525</v>
       </c>
       <c r="J18">
-        <v>6.810186090538313</v>
+        <v>7.503836150680542</v>
       </c>
       <c r="K18">
-        <v>9.488178805150941</v>
+        <v>9.534686877753847</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>9.168258129836074</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>4.918431233977618</v>
       </c>
       <c r="N18">
-        <v>6.974732163187166</v>
+        <v>0</v>
       </c>
       <c r="O18">
         <v>0</v>
       </c>
       <c r="P18">
-        <v>0</v>
+        <v>6.970281059115796</v>
       </c>
       <c r="Q18">
-        <v>10.34726736498013</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <v>10.33284116147751</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>28.80629422873039</v>
+        <v>28.783299169438</v>
       </c>
       <c r="C19">
-        <v>17.43631315064415</v>
+        <v>17.64725107440664</v>
       </c>
       <c r="D19">
-        <v>5.822487460820945</v>
+        <v>5.894873000400856</v>
       </c>
       <c r="E19">
-        <v>8.20171913748535</v>
+        <v>8.105426800338908</v>
       </c>
       <c r="F19">
-        <v>14.86641117038687</v>
+        <v>14.69624489971311</v>
       </c>
       <c r="G19">
-        <v>16.56069920595708</v>
+        <v>15.81898614995323</v>
       </c>
       <c r="H19">
-        <v>3.507690000800401</v>
+        <v>3.476014005808102</v>
       </c>
       <c r="J19">
-        <v>7.044559468025874</v>
+        <v>7.710453287794962</v>
       </c>
       <c r="K19">
-        <v>9.813053321779208</v>
+        <v>9.800601694189146</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>9.339999574071536</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>5.178029329755048</v>
       </c>
       <c r="N19">
-        <v>7.820969936729873</v>
+        <v>0</v>
       </c>
       <c r="O19">
         <v>0</v>
       </c>
       <c r="P19">
-        <v>0</v>
+        <v>7.82662675781615</v>
       </c>
       <c r="Q19">
-        <v>10.95240030026446</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <v>10.87279073207952</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>29.37214201952546</v>
+        <v>29.34207561460698</v>
       </c>
       <c r="C20">
-        <v>16.53748243181271</v>
+        <v>16.91035725800667</v>
       </c>
       <c r="D20">
-        <v>5.645655172573991</v>
+        <v>5.758301332092061</v>
       </c>
       <c r="E20">
-        <v>8.846622518653529</v>
+        <v>8.686515854482856</v>
       </c>
       <c r="F20">
-        <v>16.21198957672043</v>
+        <v>15.85166973233389</v>
       </c>
       <c r="G20">
-        <v>18.92125813099321</v>
+        <v>18.23886846211638</v>
       </c>
       <c r="H20">
-        <v>2.739571553866342</v>
+        <v>2.683059084011057</v>
       </c>
       <c r="J20">
-        <v>7.377076603088629</v>
+        <v>7.876494209431925</v>
       </c>
       <c r="K20">
-        <v>10.27474431589108</v>
+        <v>10.13486960185245</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>9.550857349077173</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>5.576703981711793</v>
       </c>
       <c r="N20">
-        <v>9.302409651266752</v>
+        <v>0</v>
       </c>
       <c r="O20">
         <v>0</v>
       </c>
       <c r="P20">
-        <v>0</v>
+        <v>9.319524159767973</v>
       </c>
       <c r="Q20">
-        <v>11.88061908679015</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <v>11.64838112547738</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>31.12875810911324</v>
+        <v>31.08185165363117</v>
       </c>
       <c r="C21">
-        <v>17.19075923772615</v>
+        <v>17.59023954116372</v>
       </c>
       <c r="D21">
-        <v>5.88440005829206</v>
+        <v>6.083847919600642</v>
       </c>
       <c r="E21">
-        <v>9.019636176995597</v>
+        <v>8.836802505834198</v>
       </c>
       <c r="F21">
-        <v>16.83814401426765</v>
+        <v>16.09466187937276</v>
       </c>
       <c r="G21">
-        <v>19.79776079844898</v>
+        <v>20.94299433899304</v>
       </c>
       <c r="H21">
-        <v>3.007123983457515</v>
+        <v>2.921463590209104</v>
       </c>
       <c r="J21">
-        <v>7.372749311327322</v>
+        <v>7.148449429844299</v>
       </c>
       <c r="K21">
-        <v>9.987115336680523</v>
+        <v>9.723218520812472</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>9.261363373368376</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>5.421820623481027</v>
       </c>
       <c r="N21">
-        <v>9.803611597256399</v>
+        <v>0</v>
       </c>
       <c r="O21">
         <v>0</v>
       </c>
       <c r="P21">
-        <v>0</v>
+        <v>9.808186935880002</v>
       </c>
       <c r="Q21">
-        <v>12.06817767770274</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <v>11.54303769375116</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>32.22522762725163</v>
+        <v>32.16750112305728</v>
       </c>
       <c r="C22">
-        <v>17.65401121789068</v>
+        <v>18.05858378878589</v>
       </c>
       <c r="D22">
-        <v>6.046375481555988</v>
+        <v>6.303420964031484</v>
       </c>
       <c r="E22">
-        <v>9.084529955412279</v>
+        <v>8.89173600490369</v>
       </c>
       <c r="F22">
-        <v>17.2001532637548</v>
+        <v>16.19697061017337</v>
       </c>
       <c r="G22">
-        <v>20.28521605685327</v>
+        <v>22.70839998280283</v>
       </c>
       <c r="H22">
-        <v>3.172250605945488</v>
+        <v>3.068240217180954</v>
       </c>
       <c r="J22">
-        <v>7.359518287127812</v>
+        <v>6.708306844021323</v>
       </c>
       <c r="K22">
-        <v>9.778312294258122</v>
+        <v>9.428242510425623</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>9.06779479313461</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>5.311101612389199</v>
       </c>
       <c r="N22">
-        <v>10.05613004306879</v>
+        <v>0</v>
       </c>
       <c r="O22">
         <v>0</v>
       </c>
       <c r="P22">
-        <v>0</v>
+        <v>10.05180936503153</v>
       </c>
       <c r="Q22">
-        <v>12.16153098827722</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <v>11.43230171056572</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>31.64460190487253</v>
+        <v>31.59304316377621</v>
       </c>
       <c r="C23">
-        <v>17.40828163701075</v>
+        <v>17.82024131583169</v>
       </c>
       <c r="D23">
-        <v>5.960489699768294</v>
+        <v>6.179624896819043</v>
       </c>
       <c r="E23">
-        <v>9.049921976407065</v>
+        <v>8.861969309741898</v>
       </c>
       <c r="F23">
-        <v>17.00608918358346</v>
+        <v>16.17559558552024</v>
       </c>
       <c r="G23">
-        <v>20.02349276581463</v>
+        <v>21.55893851596744</v>
       </c>
       <c r="H23">
-        <v>3.084394642724573</v>
+        <v>2.990916722249061</v>
       </c>
       <c r="J23">
-        <v>7.365955255789208</v>
+        <v>6.99787428945105</v>
       </c>
       <c r="K23">
-        <v>9.888740258128408</v>
+        <v>9.596688779363863</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>9.175620193349095</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>5.381236672880369</v>
       </c>
       <c r="N23">
-        <v>9.922090938928175</v>
+        <v>0</v>
       </c>
       <c r="O23">
         <v>0</v>
       </c>
       <c r="P23">
-        <v>0</v>
+        <v>9.9235228372393</v>
       </c>
       <c r="Q23">
-        <v>12.11033958217583</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <v>11.5170740327307</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>29.34456921035973</v>
+        <v>29.31450338954168</v>
       </c>
       <c r="C24">
-        <v>16.4446026527333</v>
+        <v>16.82638395798774</v>
       </c>
       <c r="D24">
-        <v>5.622901120422047</v>
+        <v>5.7364342515607</v>
       </c>
       <c r="E24">
-        <v>8.918210307688527</v>
+        <v>8.753434573053161</v>
       </c>
       <c r="F24">
-        <v>16.29026620135988</v>
+        <v>15.92417990277821</v>
       </c>
       <c r="G24">
-        <v>19.06711506653906</v>
+        <v>18.35499584066277</v>
       </c>
       <c r="H24">
-        <v>2.745475560986115</v>
+        <v>2.688894874629373</v>
       </c>
       <c r="J24">
-        <v>7.403674230553767</v>
+        <v>7.904466810442548</v>
       </c>
       <c r="K24">
-        <v>10.32832238988222</v>
+        <v>10.17958445918553</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>9.579775623675294</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>5.618094773580361</v>
       </c>
       <c r="N24">
-        <v>9.39846079752806</v>
+        <v>0</v>
       </c>
       <c r="O24">
         <v>0</v>
       </c>
       <c r="P24">
-        <v>0</v>
+        <v>9.416776052334781</v>
       </c>
       <c r="Q24">
-        <v>11.94594590120782</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R24">
+        <v>0</v>
+      </c>
+      <c r="S24">
+        <v>11.70824224663794</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>26.64555123224582</v>
+        <v>26.63377826343369</v>
       </c>
       <c r="C25">
-        <v>15.33689614044162</v>
+        <v>15.5608394099764</v>
       </c>
       <c r="D25">
-        <v>5.233014480972284</v>
+        <v>5.310539465408225</v>
       </c>
       <c r="E25">
-        <v>8.774500599465286</v>
+        <v>8.637182271868891</v>
       </c>
       <c r="F25">
-        <v>15.56180907762961</v>
+        <v>15.31681621182639</v>
       </c>
       <c r="G25">
-        <v>18.11369596134603</v>
+        <v>17.26584085680741</v>
       </c>
       <c r="H25">
-        <v>2.365889092663061</v>
+        <v>2.340188724397931</v>
       </c>
       <c r="J25">
-        <v>7.470470822100575</v>
+        <v>8.032899214403367</v>
       </c>
       <c r="K25">
-        <v>10.84291407198308</v>
+        <v>10.70915218692131</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>9.979859861547277</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>5.859921448968207</v>
       </c>
       <c r="N25">
-        <v>8.800740016376066</v>
+        <v>0</v>
       </c>
       <c r="O25">
         <v>0</v>
       </c>
       <c r="P25">
-        <v>0</v>
+        <v>8.826441619022392</v>
       </c>
       <c r="Q25">
-        <v>11.82788879222162</v>
+        <v>0</v>
+      </c>
+      <c r="R25">
+        <v>0</v>
+      </c>
+      <c r="S25">
+        <v>11.67227939471705</v>
       </c>
     </row>
   </sheetData>
